--- a/Zad2/DoborNarzedzi.xlsx
+++ b/Zad2/DoborNarzedzi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Universitas\Semestris6\CNC\CNC\AnotherTry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Universitas\Semestris6\CNC\CNC\Zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{005469A7-A134-4437-9CDA-A4E53A1296C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5B013-B586-4078-8D40-EFE551569DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16575" yWindow="4995" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Nr zabiegu</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Głowica_100</t>
+  </si>
+  <si>
+    <t>Frezowanie zgrubne kieszeni prostokątnej</t>
+  </si>
+  <si>
+    <t>Frez_walcowy_10</t>
   </si>
 </sst>
 </file>
@@ -688,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="A6:J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>52</v>
@@ -1057,55 +1063,57 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
       <c r="G10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="6">
-        <v>70</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
+        <v>180</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.06</v>
       </c>
       <c r="J10" s="6">
-        <v>3710</v>
+        <v>9550</v>
       </c>
       <c r="K10" s="6">
-        <v>379</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>573</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="10">
-        <v>3.3</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
@@ -1117,10 +1125,10 @@
         <v>22</v>
       </c>
       <c r="J11" s="6">
-        <v>6750</v>
+        <v>3710</v>
       </c>
       <c r="K11" s="6">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -1129,19 +1137,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6">
-        <v>4.2</v>
+      <c r="F12" s="10">
+        <v>3.3</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
@@ -1153,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="J12" s="6">
-        <v>5310</v>
+        <v>6750</v>
       </c>
       <c r="K12" s="6">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="L12" s="6"/>
     </row>
@@ -1165,19 +1173,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11">
-        <v>6.6</v>
+        <v>25</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.2</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
@@ -1189,10 +1197,10 @@
         <v>22</v>
       </c>
       <c r="J13" s="6">
-        <v>3380</v>
+        <v>5310</v>
       </c>
       <c r="K13" s="6">
-        <v>236</v>
+        <v>477</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -1200,35 +1208,35 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="6">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="F14" s="11">
+        <v>6.6</v>
       </c>
       <c r="G14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="6">
-        <v>2130</v>
+        <v>3380</v>
       </c>
       <c r="K14" s="6">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="L14" s="6"/>
     </row>
@@ -1236,35 +1244,35 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
+      <c r="B15" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3.3</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="6">
+        <v>16</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="6">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="6">
-        <v>1030</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>22</v>
+        <v>2130</v>
+      </c>
+      <c r="K15" s="6">
+        <v>416</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -1273,31 +1281,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="4">
+        <v>11</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" s="11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="G16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="6">
-        <v>1780</v>
+        <v>1030</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>22</v>
@@ -1305,23 +1313,44 @@
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>28</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1780</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1335,7 +1364,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1349,8 +1378,9 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1362,6 +1392,20 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Zad2/DoborNarzedzi.xlsx
+++ b/Zad2/DoborNarzedzi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Universitas\Semestris6\CNC\CNC\Zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5B013-B586-4078-8D40-EFE551569DDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78DCE1-8D8A-4A34-96C6-677D930B9437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16575" yWindow="4995" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12870" yWindow="2910" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -697,22 +697,22 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
     <col min="12" max="12" width="166.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1028,7 +1028,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>61</v>
@@ -1066,7 +1066,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
@@ -1197,10 +1197,10 @@
         <v>22</v>
       </c>
       <c r="J13" s="6">
-        <v>5310</v>
+        <v>6750</v>
       </c>
       <c r="K13" s="6">
-        <v>477</v>
+        <v>338</v>
       </c>
       <c r="L13" s="6"/>
     </row>

--- a/Zad2/DoborNarzedzi.xlsx
+++ b/Zad2/DoborNarzedzi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\Universitas\Semestris6\CNC\CNC\Zad2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78DCE1-8D8A-4A34-96C6-677D930B9437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E3272-DF4B-44F5-AB61-B816135113C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="2910" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Nr zabiegu</t>
   </si>
@@ -162,15 +162,6 @@
     <t>Prędkość obrotowa n [min.-1 lub obr/min]</t>
   </si>
   <si>
-    <t>https://www.hoffmann-group.com/US/en/hus/Modular-machining/Indexable-milling-cutters-GARANT/Indexable-face-mill%C2%A043%C2%B0-Octo-with-bore/p/213300-125%402F8</t>
-  </si>
-  <si>
-    <t>https://www.hoffmann-group.com/US/en/hus/Mono-machining/HSS-milling-cutters/Roughing-end-mill-HSS-Co8-uncoated/p/192520-12</t>
-  </si>
-  <si>
-    <t>Możemy użyć tego samego narzędzia</t>
-  </si>
-  <si>
     <t>Frez_walcowy_20</t>
   </si>
   <si>
@@ -180,15 +171,9 @@
     <t>GARANT Frezy zgrubne HSS-PM 20 mm</t>
   </si>
   <si>
-    <t>https://www.hoffmann-group.com/PL/pl/perp/Narz%C4%99dzia-monolityczne/Frezy-HSS/Frezy-zgrubne-HSS-PM-bez-pow%C5%82oki/p/192520-20</t>
-  </si>
-  <si>
     <t>Frezy trzpieniowe z VHM GARANT Master Alu HPC</t>
   </si>
   <si>
-    <t>https://www.hoffmann-group.com/PL/pl/perp/Narz%C4%99dzia-monolityczne/Frezy-VHM/Frezy-trzpieniowe-z-VHM-GARANT-Master-Alu-HPC-bez-pow%C5%82oki/p/201070-6L</t>
-  </si>
-  <si>
     <t>Frez_walcowy_6</t>
   </si>
   <si>
@@ -196,9 +181,6 @@
   </si>
   <si>
     <t>Frezy zgrubne HSS-PM 16 mm</t>
-  </si>
-  <si>
-    <t>https://www.hoffmann-group.com/PL/pl/perp/Narz%C4%99dzia-monolityczne/Frezy-HSS/Frezy-zgrubne-HSS-PM-bez-pow%C5%82oki/p/192520-16</t>
   </si>
   <si>
     <t>Frezowanie wykończeniowe kieszeni prostokątnej</t>
@@ -218,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -400,7 +382,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,13 +392,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% — akcent 1" xfId="6" builtinId="30"/>
-    <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
-    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutralny" xfId="3" builtinId="28"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Uwaga" xfId="5" builtinId="10"/>
-    <cellStyle name="Zły" xfId="2" builtinId="27"/>
+    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,24 +678,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="166.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -765,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>43</v>
@@ -788,9 +770,7 @@
       <c r="K2" s="6">
         <v>4370</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -806,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="6">
         <v>12</v>
@@ -826,9 +806,7 @@
       <c r="K3" s="6">
         <v>696</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -844,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="6">
         <v>12</v>
@@ -864,9 +842,7 @@
       <c r="K4" s="6">
         <v>696</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -879,10 +855,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6">
         <v>20</v>
@@ -902,9 +878,7 @@
       <c r="K5" s="6">
         <v>535</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -917,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6">
         <v>6</v>
@@ -940,9 +914,7 @@
       <c r="K6" s="6">
         <v>573</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -955,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="6">
         <v>20</v>
@@ -978,9 +950,7 @@
       <c r="K7" s="6">
         <v>535</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -996,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6">
         <v>16</v>
@@ -1016,25 +986,23 @@
       <c r="K8" s="6">
         <v>627</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4">
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6">
         <v>6</v>
@@ -1054,25 +1022,23 @@
       <c r="K9" s="6">
         <v>573</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4">
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6">
         <v>6</v>
@@ -1092,9 +1058,7 @@
       <c r="K10" s="6">
         <v>573</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1276,7 +1240,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1312,7 +1276,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1363,7 +1327,7 @@
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="15"/>
@@ -1378,7 +1342,7 @@
       <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="15"/>
